--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20242.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="153">
   <si>
     <t>Mat</t>
   </si>
@@ -79,52 +79,130 @@
     <t>Reprobadas</t>
   </si>
   <si>
+    <t>APARICIO</t>
+  </si>
+  <si>
     <t>ARMAS</t>
   </si>
   <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>RIOS</t>
+  </si>
+  <si>
+    <t>VENTURA</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>CLEMENTE</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
     <t>ANTONIO</t>
   </si>
   <si>
+    <t>CERON</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>CRUZ</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
+    <t>BAUTISTA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>TORRES</t>
+  </si>
+  <si>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
+    <t>LEON</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
     <t>AGUILAR</t>
   </si>
   <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>MORALES</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>BAUTISTA</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>VAZQUEZ</t>
-  </si>
-  <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>RAMOS</t>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>PANZO</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
   </si>
   <si>
     <t>JUAREZ</t>
@@ -133,58 +211,103 @@
     <t>PICHARDO</t>
   </si>
   <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>TORRES</t>
-  </si>
-  <si>
     <t>SALAZAR</t>
   </si>
   <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
     <t>SALINAS</t>
   </si>
   <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>ZOPILLAXTLE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>GONZALEZ</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>ARZATE</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>BONILLA</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>TLAXCALTECA</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>VALLEJOS</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
     <t>TLATEMOHUE</t>
   </si>
   <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>GONZALEZ</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
+    <t>XOTLANIHUA</t>
   </si>
   <si>
     <t>REYNOSO</t>
   </si>
   <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>VEGA</t>
+    <t>COLOHUA</t>
+  </si>
+  <si>
+    <t>VAS</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
   </si>
   <si>
     <t>LIBRADO</t>
@@ -193,91 +316,163 @@
     <t>TEPOLE</t>
   </si>
   <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
-    <t>VAS</t>
-  </si>
-  <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
+    <t>VICTOR YAEL</t>
+  </si>
+  <si>
     <t>JOSE GUSTAVO</t>
   </si>
   <si>
+    <t>ANDRES</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>UZIEL</t>
+  </si>
+  <si>
+    <t>CARLOS ARGEL</t>
+  </si>
+  <si>
+    <t>MAYRIN GUADALUPE</t>
+  </si>
+  <si>
+    <t>YARETZY NAOMI</t>
+  </si>
+  <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>AMISADAY</t>
+  </si>
+  <si>
+    <t>LUZ ARIANA</t>
+  </si>
+  <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
     <t>SERGIO GISELL</t>
   </si>
   <si>
+    <t>LEVI SANTIAGO</t>
+  </si>
+  <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>OMAR EMILIANO</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>MIRANDA ALIZEET</t>
+  </si>
+  <si>
+    <t>LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>LUZ ELENA</t>
+  </si>
+  <si>
+    <t>ANGEL ISMAEL</t>
+  </si>
+  <si>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>JESUS ENRIQUE</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>MARY CELESTE</t>
+  </si>
+  <si>
+    <t>SANDY CAMILA</t>
+  </si>
+  <si>
+    <t>KEVIN JESUS</t>
+  </si>
+  <si>
+    <t>GAEL ARMANDO</t>
+  </si>
+  <si>
+    <t>BETZY AYELEN</t>
+  </si>
+  <si>
+    <t>ALEYDA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ALEXANDRO</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
+  </si>
+  <si>
+    <t>KEVIN ZAID</t>
+  </si>
+  <si>
+    <t>JOHANA</t>
+  </si>
+  <si>
+    <t>EUNICE GUADALUPE</t>
+  </si>
+  <si>
+    <t>BERNARDINA</t>
+  </si>
+  <si>
+    <t>SERGIO ALAN</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
+  </si>
+  <si>
     <t>ROBERTO</t>
   </si>
   <si>
-    <t>YARETH</t>
-  </si>
-  <si>
     <t>YOSGART</t>
   </si>
   <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
     <t>RAFAEL</t>
   </si>
   <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>LUZ ELENA</t>
-  </si>
-  <si>
-    <t>JOHANA</t>
-  </si>
-  <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>ANGEL ISMAEL</t>
+    <t>EDILBERTO</t>
+  </si>
+  <si>
+    <t>ROSMELY LEILANI</t>
   </si>
   <si>
     <t>IRVING JESUS</t>
   </si>
   <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS</t>
-  </si>
-  <si>
-    <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>BERNARDINA</t>
-  </si>
-  <si>
-    <t>SERGIO ALAN</t>
+    <t>ALEXIS GABRIEL</t>
+  </si>
+  <si>
+    <t>MARTIN ERNESTO</t>
   </si>
   <si>
     <t>YURANI</t>
   </si>
   <si>
     <t>JIMENA</t>
-  </si>
-  <si>
-    <t>EDILBERTO</t>
-  </si>
-  <si>
-    <t>ROSMELY LEILANI</t>
-  </si>
-  <si>
-    <t>ALEXIS GABRIEL</t>
-  </si>
-  <si>
-    <t>MARTIN ERNESTO</t>
   </si>
   <si>
     <t>CARLOS ADRIAN</t>
@@ -1139,7 +1334,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1174,16 +1369,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>24330051920304</v>
+        <v>24330051920092</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>100</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1197,16 +1392,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>24330051920090</v>
+        <v>24330051920304</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1220,16 +1415,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>24330051920127</v>
+        <v>24330051920305</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1243,16 +1438,16 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>24330051920098</v>
+        <v>24330051920113</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1266,16 +1461,16 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>24330051920148</v>
+        <v>24330051920122</v>
       </c>
       <c r="B6" t="s">
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1289,16 +1484,16 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>24330051920149</v>
+        <v>24330051920315</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1312,22 +1507,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920106</v>
+        <v>24330051920389</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -1335,22 +1530,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920144</v>
+        <v>24330051920247</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1358,16 +1553,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920244</v>
+        <v>24330051920330</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
@@ -1381,16 +1576,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920243</v>
+        <v>24330051920246</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
@@ -1404,22 +1599,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920226</v>
+        <v>24330051920274</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1427,22 +1622,22 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>24330051920239</v>
+        <v>24330051920182</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G13">
         <v>4</v>
@@ -1450,22 +1645,22 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920256</v>
+        <v>24330051920201</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="D14" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G14">
         <v>4</v>
@@ -1473,114 +1668,114 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920255</v>
+        <v>24330051920093</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>23330051920298</v>
+        <v>24330051920090</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920188</v>
+        <v>24330051920392</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920206</v>
+        <v>24330051920098</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="D18" t="s">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>24330051920232</v>
+        <v>24330051920401</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="D19" t="s">
-        <v>79</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G19">
         <v>3</v>
@@ -1588,22 +1783,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>24330051920258</v>
+        <v>24330051920144</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="D20" t="s">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1611,22 +1806,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>24330051920181</v>
+        <v>24330051920107</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1634,22 +1829,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920316</v>
+        <v>24330051920306</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>57</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1657,16 +1852,16 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>24330051920410</v>
+        <v>24330051920143</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>81</v>
       </c>
       <c r="D23" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
@@ -1675,67 +1870,67 @@
         <v>9</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24330051920265</v>
+        <v>24330051920244</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>24330051920257</v>
+        <v>24330051920239</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24330051920270</v>
+        <v>24330051920255</v>
       </c>
       <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
         <v>41</v>
       </c>
-      <c r="C26" t="s">
-        <v>60</v>
-      </c>
       <c r="D26" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
@@ -1744,30 +1939,674 @@
         <v>11</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
+        <v>24330051920369</v>
+      </c>
+      <c r="B27" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28">
+        <v>24330051920400</v>
+      </c>
+      <c r="B28" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" t="s">
+        <v>126</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29">
+        <v>23330051920351</v>
+      </c>
+      <c r="B29" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>127</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30">
+        <v>24330051920213</v>
+      </c>
+      <c r="B30" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31">
+        <v>23330051920298</v>
+      </c>
+      <c r="B31" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32">
+        <v>24330051920277</v>
+      </c>
+      <c r="B32" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33">
+        <v>24330051920194</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
+        <v>131</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>23330051920312</v>
+      </c>
+      <c r="B34" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35">
+        <v>24330051920142</v>
+      </c>
+      <c r="B35" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36">
+        <v>24330051920149</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>9</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37">
+        <v>24330051920300</v>
+      </c>
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38">
+        <v>24330051920243</v>
+      </c>
+      <c r="B38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39">
+        <v>24330051920226</v>
+      </c>
+      <c r="B39" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>60</v>
+      </c>
+      <c r="D39" t="s">
+        <v>137</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>10</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40">
+        <v>24330051920232</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>138</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41">
+        <v>24330051920258</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42">
+        <v>24330051920188</v>
+      </c>
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43">
+        <v>24330051920206</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>90</v>
+      </c>
+      <c r="D43" t="s">
+        <v>141</v>
+      </c>
+      <c r="E43" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44">
+        <v>24330051920127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" t="s">
+        <v>142</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45">
+        <v>24330051920155</v>
+      </c>
+      <c r="B45" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" t="s">
+        <v>92</v>
+      </c>
+      <c r="D45" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46">
+        <v>24330051920148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E46" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47">
+        <v>24330051920106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>144</v>
+      </c>
+      <c r="E47" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48">
+        <v>24330051920410</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49">
+        <v>24330051920265</v>
+      </c>
+      <c r="B49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+      <c r="D49" t="s">
+        <v>146</v>
+      </c>
+      <c r="E49" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50">
+        <v>24330051920256</v>
+      </c>
+      <c r="B50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" t="s">
+        <v>147</v>
+      </c>
+      <c r="E50" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51">
+        <v>24330051920257</v>
+      </c>
+      <c r="B51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>148</v>
+      </c>
+      <c r="E51" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52">
+        <v>24330051920270</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D52" t="s">
+        <v>149</v>
+      </c>
+      <c r="E52" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53">
+        <v>24330051920181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" t="s">
+        <v>150</v>
+      </c>
+      <c r="E53" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54">
+        <v>24330051920316</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C54" t="s">
+        <v>98</v>
+      </c>
+      <c r="D54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55">
         <v>24330051920320</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" t="s">
-        <v>87</v>
-      </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+      <c r="D55" t="s">
+        <v>152</v>
+      </c>
+      <c r="E55" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" t="s">
         <v>13</v>
       </c>
-      <c r="G27">
-        <v>2</v>
+      <c r="G55">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/docentes/Villanueva Morales Luis Arturo - Estadisticos 20242.xlsx
+++ b/docentes/Villanueva Morales Luis Arturo - Estadisticos 20242.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="125">
   <si>
     <t>Mat</t>
   </si>
@@ -97,225 +97,180 @@
     <t>VENTURA</t>
   </si>
   <si>
+    <t>VASQUEZ</t>
+  </si>
+  <si>
+    <t>ZUNO</t>
+  </si>
+  <si>
+    <t>MUÑOZ</t>
+  </si>
+  <si>
+    <t>LOPEZ</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>ARIAS</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
+  </si>
+  <si>
+    <t>CHICO</t>
+  </si>
+  <si>
+    <t>PELLICO</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>ROSAS</t>
+  </si>
+  <si>
     <t>RUIZ</t>
   </si>
   <si>
     <t>SANCHEZ</t>
   </si>
   <si>
-    <t>VASQUEZ</t>
-  </si>
-  <si>
-    <t>ZUNO</t>
-  </si>
-  <si>
     <t>CLEMENTE</t>
   </si>
   <si>
-    <t>LOPEZ</t>
-  </si>
-  <si>
-    <t>SOTO</t>
-  </si>
-  <si>
-    <t>ARIAS</t>
-  </si>
-  <si>
-    <t>ANTONIO</t>
-  </si>
-  <si>
-    <t>CERON</t>
-  </si>
-  <si>
-    <t>CHICO</t>
-  </si>
-  <si>
-    <t>CRUZ</t>
-  </si>
-  <si>
-    <t>MUÑOZ</t>
-  </si>
-  <si>
-    <t>PELLICO</t>
-  </si>
-  <si>
-    <t>ROJAS</t>
-  </si>
-  <si>
-    <t>ROSAS</t>
+    <t>CALIHUA</t>
+  </si>
+  <si>
+    <t>ESTEVEZ</t>
+  </si>
+  <si>
+    <t>GUERRA</t>
+  </si>
+  <si>
+    <t>MAZA</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
+    <t>LEON</t>
   </si>
   <si>
     <t>BAUTISTA</t>
   </si>
   <si>
-    <t>VAZQUEZ</t>
+    <t>LEYVA</t>
+  </si>
+  <si>
+    <t>PORTUGAL</t>
+  </si>
+  <si>
+    <t>DE JESUS</t>
+  </si>
+  <si>
+    <t>BERNABE</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>PAZ</t>
+  </si>
+  <si>
+    <t>JUAREZ</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>OFICIAL</t>
+  </si>
+  <si>
+    <t>SALINAS</t>
+  </si>
+  <si>
+    <t>CUAHUA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ</t>
+  </si>
+  <si>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>ZEPEDA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>FLORES</t>
+  </si>
+  <si>
+    <t>REYES</t>
+  </si>
+  <si>
+    <t>ZOPILLAXTLE</t>
+  </si>
+  <si>
+    <t>SARMIENTO</t>
+  </si>
+  <si>
+    <t>BALDERAS</t>
+  </si>
+  <si>
+    <t>CORONA</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MEZA</t>
+  </si>
+  <si>
+    <t>PINO</t>
+  </si>
+  <si>
+    <t>GALLARDO</t>
+  </si>
+  <si>
+    <t>BRAVO</t>
+  </si>
+  <si>
+    <t>ENCARNACION</t>
+  </si>
+  <si>
+    <t>MONTIEL</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
   </si>
   <si>
     <t>TORRES</t>
   </si>
   <si>
-    <t>CALIHUA</t>
-  </si>
-  <si>
-    <t>ESTEVEZ</t>
-  </si>
-  <si>
-    <t>GUERRA</t>
-  </si>
-  <si>
-    <t>MAZA</t>
-  </si>
-  <si>
-    <t>REYES</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>CAMACHO</t>
-  </si>
-  <si>
-    <t>LEON</t>
-  </si>
-  <si>
-    <t>TRUJILLO</t>
-  </si>
-  <si>
-    <t>BERNABE</t>
-  </si>
-  <si>
-    <t>LEYVA</t>
-  </si>
-  <si>
-    <t>PORTUGAL</t>
-  </si>
-  <si>
-    <t>AGUILAR</t>
-  </si>
-  <si>
-    <t>DE JESUS</t>
-  </si>
-  <si>
-    <t>PANZO</t>
-  </si>
-  <si>
-    <t>HERNANDEZ</t>
-  </si>
-  <si>
-    <t>PAZ</t>
-  </si>
-  <si>
-    <t>JUAREZ</t>
-  </si>
-  <si>
-    <t>PICHARDO</t>
-  </si>
-  <si>
-    <t>SALAZAR</t>
-  </si>
-  <si>
-    <t>OFICIAL</t>
-  </si>
-  <si>
-    <t>SALINAS</t>
-  </si>
-  <si>
-    <t>CUAHUA</t>
-  </si>
-  <si>
-    <t>DE LA CRUZ</t>
-  </si>
-  <si>
-    <t>ZEPAHUA</t>
-  </si>
-  <si>
-    <t>ZEPEDA</t>
-  </si>
-  <si>
-    <t>PINO</t>
-  </si>
-  <si>
-    <t>PEREZ</t>
-  </si>
-  <si>
-    <t>FLORES</t>
-  </si>
-  <si>
-    <t>ZOPILLAXTLE</t>
-  </si>
-  <si>
-    <t>SARMIENTO</t>
-  </si>
-  <si>
     <t>GONZALEZ</t>
   </si>
   <si>
-    <t>BALDERAS</t>
-  </si>
-  <si>
-    <t>ARZATE</t>
-  </si>
-  <si>
-    <t>CORONA</t>
-  </si>
-  <si>
-    <t>GUTIERREZ</t>
-  </si>
-  <si>
-    <t>MEZA</t>
-  </si>
-  <si>
-    <t>BONILLA</t>
-  </si>
-  <si>
-    <t>GALLARDO</t>
-  </si>
-  <si>
-    <t>BRAVO</t>
-  </si>
-  <si>
-    <t>ENCARNACION</t>
-  </si>
-  <si>
-    <t>TLAXCALTECA</t>
-  </si>
-  <si>
-    <t>MONTIEL</t>
-  </si>
-  <si>
-    <t>RAMIREZ</t>
-  </si>
-  <si>
-    <t>VALLEJOS</t>
-  </si>
-  <si>
     <t>VEGA</t>
   </si>
   <si>
-    <t>TLATEMOHUE</t>
-  </si>
-  <si>
     <t>XOTLANIHUA</t>
   </si>
   <si>
-    <t>REYNOSO</t>
-  </si>
-  <si>
-    <t>COLOHUA</t>
-  </si>
-  <si>
     <t>VAS</t>
   </si>
   <si>
-    <t>ROSALES</t>
-  </si>
-  <si>
     <t>LIBRADO</t>
   </si>
   <si>
-    <t>TEPOLE</t>
-  </si>
-  <si>
     <t>ZUÑIGA</t>
   </si>
   <si>
@@ -337,126 +292,93 @@
     <t>CARLOS ARGEL</t>
   </si>
   <si>
+    <t>DANIELA LILI</t>
+  </si>
+  <si>
+    <t>ALIN MARIEL</t>
+  </si>
+  <si>
+    <t>ERWIN ISRAEL</t>
+  </si>
+  <si>
+    <t>AMISADAY</t>
+  </si>
+  <si>
+    <t>LUZ ARIANA</t>
+  </si>
+  <si>
+    <t>URIEL ARTURO</t>
+  </si>
+  <si>
+    <t>SERGIO GISELL</t>
+  </si>
+  <si>
+    <t>YARETH</t>
+  </si>
+  <si>
+    <t>JOSE ABEL</t>
+  </si>
+  <si>
+    <t>MIRANDA ALIZEET</t>
+  </si>
+  <si>
+    <t>LUIS ROBERTO</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO</t>
+  </si>
+  <si>
     <t>MAYRIN GUADALUPE</t>
   </si>
   <si>
     <t>YARETZY NAOMI</t>
   </si>
   <si>
-    <t>DANIELA LILI</t>
-  </si>
-  <si>
-    <t>ALIN MARIEL</t>
-  </si>
-  <si>
     <t>BRYAN</t>
   </si>
   <si>
-    <t>AMISADAY</t>
-  </si>
-  <si>
-    <t>LUZ ARIANA</t>
-  </si>
-  <si>
-    <t>URIEL ARTURO</t>
-  </si>
-  <si>
-    <t>SERGIO GISELL</t>
-  </si>
-  <si>
-    <t>LEVI SANTIAGO</t>
-  </si>
-  <si>
-    <t>YARETH</t>
-  </si>
-  <si>
-    <t>OMAR EMILIANO</t>
-  </si>
-  <si>
-    <t>JOSE ABEL</t>
-  </si>
-  <si>
-    <t>MIRANDA ALIZEET</t>
-  </si>
-  <si>
-    <t>LUIS ROBERTO</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO</t>
+    <t>ERNESTO</t>
+  </si>
+  <si>
+    <t>MARIA MICHELLE</t>
+  </si>
+  <si>
+    <t>MARY CELESTE</t>
+  </si>
+  <si>
+    <t>SANDY CAMILA</t>
+  </si>
+  <si>
+    <t>KEVIN JESUS</t>
+  </si>
+  <si>
+    <t>BETZY AYELEN</t>
+  </si>
+  <si>
+    <t>ALEYDA MONSERRAT</t>
+  </si>
+  <si>
+    <t>ALEXANDRO</t>
+  </si>
+  <si>
+    <t>BRAYAN</t>
   </si>
   <si>
     <t>LUZ ELENA</t>
   </si>
   <si>
-    <t>ANGEL ISMAEL</t>
-  </si>
-  <si>
-    <t>ERNESTO</t>
-  </si>
-  <si>
-    <t>JESUS ENRIQUE</t>
-  </si>
-  <si>
-    <t>MARIA MICHELLE</t>
-  </si>
-  <si>
-    <t>MARY CELESTE</t>
-  </si>
-  <si>
-    <t>SANDY CAMILA</t>
-  </si>
-  <si>
-    <t>KEVIN JESUS</t>
-  </si>
-  <si>
-    <t>GAEL ARMANDO</t>
-  </si>
-  <si>
-    <t>BETZY AYELEN</t>
-  </si>
-  <si>
-    <t>ALEYDA MONSERRAT</t>
-  </si>
-  <si>
-    <t>ALEXANDRO</t>
-  </si>
-  <si>
-    <t>BRAYAN</t>
-  </si>
-  <si>
-    <t>KEVIN ZAID</t>
+    <t>EUNICE GUADALUPE</t>
+  </si>
+  <si>
+    <t>SERGIO ALAN</t>
+  </si>
+  <si>
+    <t>SANTIAGO</t>
   </si>
   <si>
     <t>JOHANA</t>
   </si>
   <si>
-    <t>EUNICE GUADALUPE</t>
-  </si>
-  <si>
-    <t>BERNARDINA</t>
-  </si>
-  <si>
-    <t>SERGIO ALAN</t>
-  </si>
-  <si>
-    <t>BENJAMIN</t>
-  </si>
-  <si>
-    <t>SANTIAGO</t>
-  </si>
-  <si>
-    <t>ROBERTO</t>
-  </si>
-  <si>
-    <t>YOSGART</t>
-  </si>
-  <si>
-    <t>RAFAEL</t>
-  </si>
-  <si>
-    <t>EDILBERTO</t>
-  </si>
-  <si>
     <t>ROSMELY LEILANI</t>
   </si>
   <si>
@@ -466,13 +388,7 @@
     <t>ALEXIS GABRIEL</t>
   </si>
   <si>
-    <t>MARTIN ERNESTO</t>
-  </si>
-  <si>
     <t>YURANI</t>
-  </si>
-  <si>
-    <t>JIMENA</t>
   </si>
   <si>
     <t>CARLOS ADRIAN</t>
@@ -1051,16 +967,19 @@
         <v>36</v>
       </c>
       <c r="D2">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>50</v>
+      </c>
+      <c r="H2">
+        <v>5.8</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1074,16 +993,19 @@
         <v>28</v>
       </c>
       <c r="D3">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>71.43000000000001</v>
+      </c>
+      <c r="H3">
+        <v>6.6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1097,16 +1019,19 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>52.17</v>
+      </c>
+      <c r="H4">
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1120,16 +1045,19 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>66.67</v>
+      </c>
+      <c r="H5">
+        <v>6.6</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1143,16 +1071,19 @@
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>63.64</v>
+      </c>
+      <c r="H6">
+        <v>6.7</v>
       </c>
     </row>
   </sheetData>
@@ -1211,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F2">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>30.56</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1237,16 +1168,16 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>60.71</v>
+        <v>71.43000000000001</v>
       </c>
       <c r="H3">
-        <v>6.6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1263,16 +1194,16 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F4">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4">
-        <v>43.48</v>
+        <v>52.17</v>
       </c>
       <c r="H4">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1289,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>53.33</v>
+        <v>66.67</v>
       </c>
       <c r="H5">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1324,7 +1255,7 @@
         <v>63.64</v>
       </c>
       <c r="H6">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
     </row>
   </sheetData>
@@ -1334,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,10 +1306,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -1398,10 +1329,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -1421,10 +1352,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -1444,10 +1375,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
         <v>8</v>
@@ -1467,10 +1398,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E6" t="s">
         <v>8</v>
@@ -1490,10 +1421,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -1507,16 +1438,16 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>24330051920389</v>
+        <v>24330051920330</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
         <v>8</v>
@@ -1530,16 +1461,16 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>24330051920247</v>
+        <v>24330051920246</v>
       </c>
       <c r="B9" t="s">
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E9" t="s">
         <v>8</v>
@@ -1553,22 +1484,22 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>24330051920330</v>
+        <v>24330051920393</v>
       </c>
       <c r="B10" t="s">
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G10">
         <v>4</v>
@@ -1576,22 +1507,22 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>24330051920246</v>
+        <v>24330051920182</v>
       </c>
       <c r="B11" t="s">
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="E11" t="s">
         <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11">
         <v>4</v>
@@ -1599,22 +1530,22 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12">
-        <v>24330051920274</v>
+        <v>24330051920201</v>
       </c>
       <c r="B12" t="s">
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>4</v>
@@ -1622,62 +1553,62 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13">
-        <v>24330051920182</v>
+        <v>24330051920093</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G13">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14">
-        <v>24330051920201</v>
+        <v>24330051920090</v>
       </c>
       <c r="B14" t="s">
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15">
-        <v>24330051920093</v>
+        <v>24330051920098</v>
       </c>
       <c r="B15" t="s">
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
         <v>8</v>
@@ -1691,16 +1622,16 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16">
-        <v>24330051920090</v>
+        <v>24330051920144</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -1714,16 +1645,16 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>24330051920392</v>
+        <v>24330051920107</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="E17" t="s">
         <v>8</v>
@@ -1737,16 +1668,16 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18">
-        <v>24330051920098</v>
+        <v>24330051920306</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="E18" t="s">
         <v>8</v>
@@ -1760,16 +1691,16 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>24330051920401</v>
+        <v>24330051920143</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E19" t="s">
         <v>8</v>
@@ -1783,22 +1714,22 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>24330051920144</v>
+        <v>24330051920389</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="E20" t="s">
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>3</v>
@@ -1806,22 +1737,22 @@
     </row>
     <row r="21" spans="1:7">
       <c r="A21">
-        <v>24330051920107</v>
+        <v>24330051920247</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="E21" t="s">
         <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>3</v>
@@ -1829,22 +1760,22 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>24330051920306</v>
+        <v>24330051920274</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="E22" t="s">
         <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>3</v>
@@ -1852,22 +1783,22 @@
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>24330051920143</v>
+        <v>24330051920255</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="E23" t="s">
         <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>3</v>
@@ -1875,22 +1806,22 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24">
-        <v>24330051920244</v>
+        <v>24330051920400</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="E24" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G24">
         <v>3</v>
@@ -1898,22 +1829,22 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>24330051920239</v>
+        <v>23330051920351</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E25" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G25">
         <v>3</v>
@@ -1921,22 +1852,22 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>24330051920255</v>
+        <v>24330051920213</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E26" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G26">
         <v>3</v>
@@ -1944,22 +1875,22 @@
     </row>
     <row r="27" spans="1:7">
       <c r="A27">
-        <v>24330051920369</v>
+        <v>23330051920298</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="E27" t="s">
         <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G27">
         <v>3</v>
@@ -1967,16 +1898,16 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28">
-        <v>24330051920400</v>
+        <v>24330051920194</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>8</v>
@@ -1990,22 +1921,22 @@
     </row>
     <row r="29" spans="1:7">
       <c r="A29">
-        <v>23330051920351</v>
+        <v>23330051920312</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>8</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29">
         <v>3</v>
@@ -2013,137 +1944,137 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30">
-        <v>24330051920213</v>
+        <v>24330051920142</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="E30" t="s">
         <v>8</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G30">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31">
-        <v>23330051920298</v>
+        <v>24330051920149</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="E31" t="s">
         <v>8</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G31">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32">
-        <v>24330051920277</v>
+        <v>24330051920244</v>
       </c>
       <c r="B32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="E32" t="s">
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33">
-        <v>24330051920194</v>
+        <v>24330051920226</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="E33" t="s">
         <v>8</v>
       </c>
       <c r="F33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34">
-        <v>23330051920312</v>
+        <v>24330051920258</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C34" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="E34" t="s">
         <v>8</v>
       </c>
       <c r="F34" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35">
-        <v>24330051920142</v>
+        <v>24330051920206</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>80</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
         <v>8</v>
       </c>
       <c r="F35" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>2</v>
@@ -2151,16 +2082,16 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36">
-        <v>24330051920149</v>
+        <v>24330051920155</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E36" t="s">
         <v>8</v>
@@ -2169,443 +2100,144 @@
         <v>9</v>
       </c>
       <c r="G36">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37">
-        <v>24330051920300</v>
+        <v>24330051920243</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
-        <v>89</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
         <v>8</v>
       </c>
       <c r="F37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38">
-        <v>24330051920243</v>
+        <v>24330051920265</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="E38" t="s">
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39">
-        <v>24330051920226</v>
+        <v>24330051920256</v>
       </c>
       <c r="B39" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C39" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E39" t="s">
         <v>8</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40">
-        <v>24330051920232</v>
+        <v>24330051920257</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E40" t="s">
         <v>8</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41">
-        <v>24330051920258</v>
+        <v>24330051920181</v>
       </c>
       <c r="B41" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>8</v>
       </c>
       <c r="F41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42">
-        <v>24330051920188</v>
+        <v>24330051920320</v>
       </c>
       <c r="B42" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E42" t="s">
         <v>8</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>24330051920206</v>
-      </c>
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" t="s">
-        <v>90</v>
-      </c>
-      <c r="D43" t="s">
-        <v>141</v>
-      </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>24330051920127</v>
-      </c>
-      <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" t="s">
-        <v>91</v>
-      </c>
-      <c r="D44" t="s">
-        <v>142</v>
-      </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>24330051920155</v>
-      </c>
-      <c r="B45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C45" t="s">
-        <v>92</v>
-      </c>
-      <c r="D45" t="s">
-        <v>141</v>
-      </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45" t="s">
-        <v>9</v>
-      </c>
-      <c r="G45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>24330051920148</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" t="s">
-        <v>9</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>24330051920106</v>
-      </c>
-      <c r="B47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C47" t="s">
-        <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>9</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>24330051920410</v>
-      </c>
-      <c r="B48" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" t="s">
-        <v>94</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>24330051920265</v>
-      </c>
-      <c r="B49" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
-      </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>24330051920256</v>
-      </c>
-      <c r="B50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C50" t="s">
-        <v>51</v>
-      </c>
-      <c r="D50" t="s">
-        <v>147</v>
-      </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>24330051920257</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>60</v>
-      </c>
-      <c r="D51" t="s">
-        <v>148</v>
-      </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>24330051920270</v>
-      </c>
-      <c r="B52" t="s">
-        <v>44</v>
-      </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="D52" t="s">
-        <v>149</v>
-      </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>24330051920181</v>
-      </c>
-      <c r="B53" t="s">
-        <v>62</v>
-      </c>
-      <c r="C53" t="s">
-        <v>97</v>
-      </c>
-      <c r="D53" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>24330051920316</v>
-      </c>
-      <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>98</v>
-      </c>
-      <c r="D54" t="s">
-        <v>151</v>
-      </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>24330051920320</v>
-      </c>
-      <c r="B55" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" t="s">
-        <v>99</v>
-      </c>
-      <c r="D55" t="s">
-        <v>152</v>
-      </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55" t="s">
-        <v>13</v>
-      </c>
-      <c r="G55">
         <v>1</v>
       </c>
     </row>
